--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,10 +540,10 @@
         <v>0.16034</v>
       </c>
       <c r="I2">
-        <v>0.01703322519986738</v>
+        <v>0.01683020325561672</v>
       </c>
       <c r="J2">
-        <v>0.01703322519986738</v>
+        <v>0.01683020325561672</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,7 +552,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N2">
         <v>0.247237</v>
@@ -567,16 +564,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q2">
-        <v>0.004404664508888888</v>
+        <v>0.004404664508888889</v>
       </c>
       <c r="R2">
-        <v>0.03964198058</v>
+        <v>0.03964198058000001</v>
       </c>
       <c r="S2">
-        <v>0.0008051615112490698</v>
+        <v>0.0007955646525490005</v>
       </c>
       <c r="T2">
-        <v>0.0008051615112490699</v>
+        <v>0.0007955646525490005</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,10 +602,10 @@
         <v>0.16034</v>
       </c>
       <c r="I3">
-        <v>0.01703322519986738</v>
+        <v>0.01683020325561672</v>
       </c>
       <c r="J3">
-        <v>0.01703322519986738</v>
+        <v>0.01683020325561672</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -635,10 +632,10 @@
         <v>0.79898576448</v>
       </c>
       <c r="S3">
-        <v>0.01622806368861831</v>
+        <v>0.01603463860306772</v>
       </c>
       <c r="T3">
-        <v>0.01622806368861831</v>
+        <v>0.01603463860306771</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +643,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -667,10 +664,10 @@
         <v>9.052197</v>
       </c>
       <c r="I4">
-        <v>0.9616322193748527</v>
+        <v>0.9501703593606328</v>
       </c>
       <c r="J4">
-        <v>0.9616322193748529</v>
+        <v>0.9501703593606329</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,7 +676,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N4">
         <v>0.247237</v>
@@ -691,16 +688,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q4">
-        <v>0.2486708921876666</v>
+        <v>0.2486708921876667</v>
       </c>
       <c r="R4">
         <v>2.238038029689</v>
       </c>
       <c r="S4">
-        <v>0.04545640898493385</v>
+        <v>0.04491460621872336</v>
       </c>
       <c r="T4">
-        <v>0.04545640898493387</v>
+        <v>0.04491460621872337</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -729,10 +726,10 @@
         <v>9.052197</v>
       </c>
       <c r="I5">
-        <v>0.9616322193748527</v>
+        <v>0.9501703593606328</v>
       </c>
       <c r="J5">
-        <v>0.9616322193748529</v>
+        <v>0.9501703593606329</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -759,10 +756,10 @@
         <v>45.107749409184</v>
       </c>
       <c r="S5">
-        <v>0.9161758103899189</v>
+        <v>0.9052557531419094</v>
       </c>
       <c r="T5">
-        <v>0.9161758103899189</v>
+        <v>0.9052557531419094</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +767,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01182566666666667</v>
+        <v>0.1047943333333333</v>
       </c>
       <c r="H6">
-        <v>0.035477</v>
+        <v>0.314383</v>
       </c>
       <c r="I6">
-        <v>0.003768789637119215</v>
+        <v>0.03299943738375047</v>
       </c>
       <c r="J6">
-        <v>0.003768789637119216</v>
+        <v>0.03299943738375048</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,7 +800,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N6">
         <v>0.247237</v>
@@ -815,16 +812,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q6">
-        <v>0.0009745807832222221</v>
+        <v>0.008636345530111111</v>
       </c>
       <c r="R6">
-        <v>0.008771227049</v>
+        <v>0.07772710977100002</v>
       </c>
       <c r="S6">
-        <v>0.0001781508976835677</v>
+        <v>0.001559885257342599</v>
       </c>
       <c r="T6">
-        <v>0.0001781508976835677</v>
+        <v>0.0015598852573426</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +829,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.01182566666666667</v>
+        <v>0.1047943333333333</v>
       </c>
       <c r="H7">
-        <v>0.035477</v>
+        <v>0.314383</v>
       </c>
       <c r="I7">
-        <v>0.003768789637119215</v>
+        <v>0.03299943738375047</v>
       </c>
       <c r="J7">
-        <v>0.003768789637119216</v>
+        <v>0.03299943738375048</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,140 +874,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q7">
-        <v>0.01964271614933333</v>
+        <v>0.1740659027306667</v>
       </c>
       <c r="R7">
-        <v>0.176784445344</v>
+        <v>1.566593124576</v>
       </c>
       <c r="S7">
-        <v>0.003590638739435648</v>
+        <v>0.03143955212640787</v>
       </c>
       <c r="T7">
-        <v>0.003590638739435648</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.05511766666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.165353</v>
-      </c>
-      <c r="I8">
-        <v>0.0175657657881606</v>
-      </c>
-      <c r="J8">
-        <v>0.0175657657881606</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.08241233333333332</v>
-      </c>
-      <c r="N8">
-        <v>0.247237</v>
-      </c>
-      <c r="O8">
-        <v>0.04727005612861496</v>
-      </c>
-      <c r="P8">
-        <v>0.04727005612861496</v>
-      </c>
-      <c r="Q8">
-        <v>0.004542375517888888</v>
-      </c>
-      <c r="R8">
-        <v>0.040881379661</v>
-      </c>
-      <c r="S8">
-        <v>0.000830334734748456</v>
-      </c>
-      <c r="T8">
-        <v>0.000830334734748456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.05511766666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.165353</v>
-      </c>
-      <c r="I9">
-        <v>0.0175657657881606</v>
-      </c>
-      <c r="J9">
-        <v>0.0175657657881606</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.661024</v>
-      </c>
-      <c r="N9">
-        <v>4.983072</v>
-      </c>
-      <c r="O9">
-        <v>0.9527299438713851</v>
-      </c>
-      <c r="P9">
-        <v>0.952729943871385</v>
-      </c>
-      <c r="Q9">
-        <v>0.09155176715733335</v>
-      </c>
-      <c r="R9">
-        <v>0.823965904416</v>
-      </c>
-      <c r="S9">
-        <v>0.01673543105341215</v>
-      </c>
-      <c r="T9">
-        <v>0.01673543105341214</v>
+        <v>0.03143955212640787</v>
       </c>
     </row>
   </sheetData>
